--- a/data/pca/factorExposure/factorExposure_2012-12-28.xlsx
+++ b/data/pca/factorExposure/factorExposure_2012-12-28.xlsx
@@ -14,9 +14,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
   <si>
     <t>factor1</t>
+  </si>
+  <si>
+    <t>factor2</t>
+  </si>
+  <si>
+    <t>factor3</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -683,838 +689,1462 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B104"/>
+  <dimension ref="A1:D104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B2">
-        <v>-0.0006698861379907566</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
+        <v>-0.001804526119586327</v>
+      </c>
+      <c r="C2">
+        <v>-0.03186033482411128</v>
+      </c>
+      <c r="D2">
+        <v>0.005305377977980161</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:2">
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B4">
-        <v>-0.0005145731923233137</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
+        <v>0.006392457982835495</v>
+      </c>
+      <c r="C4">
+        <v>-0.08426013083300096</v>
+      </c>
+      <c r="D4">
+        <v>0.07880214413284815</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:2">
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B6">
-        <v>-0.0001892191349021446</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
+        <v>0.01446128594487701</v>
+      </c>
+      <c r="C6">
+        <v>-0.1144143539429835</v>
+      </c>
+      <c r="D6">
+        <v>0.0323546404215122</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B7">
-        <v>-0.001737591706839037</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
+        <v>0.005134312614329618</v>
+      </c>
+      <c r="C7">
+        <v>-0.05815383184759872</v>
+      </c>
+      <c r="D7">
+        <v>0.0307706844301768</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B8">
-        <v>0.000656022449838357</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
+        <v>0.005861707707283033</v>
+      </c>
+      <c r="C8">
+        <v>-0.03810435028037796</v>
+      </c>
+      <c r="D8">
+        <v>0.04032853667322265</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B9">
-        <v>-0.00319335379404166</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
+        <v>0.004559223536199295</v>
+      </c>
+      <c r="C9">
+        <v>-0.07053690322709426</v>
+      </c>
+      <c r="D9">
+        <v>0.07261232485295753</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B10">
-        <v>0.002487261999394368</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
+        <v>0.005380429411956171</v>
+      </c>
+      <c r="C10">
+        <v>-0.0577819781378963</v>
+      </c>
+      <c r="D10">
+        <v>-0.1990504101454695</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
       <c r="A11" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B11">
-        <v>-0.002509870973583112</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
+        <v>0.005834811330601248</v>
+      </c>
+      <c r="C11">
+        <v>-0.07963473093127971</v>
+      </c>
+      <c r="D11">
+        <v>0.06040478010121952</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
       <c r="A12" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B12">
-        <v>0.0004533584877927419</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
+        <v>0.004183207087700584</v>
+      </c>
+      <c r="C12">
+        <v>-0.06433401707606999</v>
+      </c>
+      <c r="D12">
+        <v>0.04630121263105968</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
       <c r="A13" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B13">
-        <v>0.002412221534887346</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
+        <v>0.009094763364455763</v>
+      </c>
+      <c r="C13">
+        <v>-0.06868306186761457</v>
+      </c>
+      <c r="D13">
+        <v>0.05790830781826335</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
       <c r="A14" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B14">
-        <v>-0.0008040800956853401</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
+        <v>0.001643261195519336</v>
+      </c>
+      <c r="C14">
+        <v>-0.04554146904964505</v>
+      </c>
+      <c r="D14">
+        <v>0.003833626849170519</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
       <c r="A15" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B15">
-        <v>-0.000691579549214736</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
+        <v>0.006082448240738755</v>
+      </c>
+      <c r="C15">
+        <v>-0.0419944711083831</v>
+      </c>
+      <c r="D15">
+        <v>0.02824928329203857</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
       <c r="A16" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B16">
-        <v>-0.0007835759183698625</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
+        <v>0.005161924734291379</v>
+      </c>
+      <c r="C16">
+        <v>-0.06520773503036927</v>
+      </c>
+      <c r="D16">
+        <v>0.04830390821487942</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
       <c r="A17" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:2">
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
       <c r="A18" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:2">
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
       <c r="A19" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:2">
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
       <c r="A20" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B20">
-        <v>0.0001662902263870527</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
+        <v>0.009069651117075667</v>
+      </c>
+      <c r="C20">
+        <v>-0.06553606612706586</v>
+      </c>
+      <c r="D20">
+        <v>0.04188793771519761</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
       <c r="A21" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B21">
-        <v>0.005919259674800744</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
+        <v>0.01009766012842915</v>
+      </c>
+      <c r="C21">
+        <v>-0.02172172332291002</v>
+      </c>
+      <c r="D21">
+        <v>0.0366558427301913</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
       <c r="A22" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B22">
-        <v>-0.01643743260260429</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
+        <v>-0.006595560967856112</v>
+      </c>
+      <c r="C22">
+        <v>-0.09426971918764482</v>
+      </c>
+      <c r="D22">
+        <v>0.1078095907293961</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
       <c r="A23" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B23">
-        <v>-0.01673813772602412</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
+        <v>-0.006411725440888531</v>
+      </c>
+      <c r="C23">
+        <v>-0.09508104763997405</v>
+      </c>
+      <c r="D23">
+        <v>0.1078452134439808</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
       <c r="A24" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B24">
-        <v>-0.001344052751967729</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
+        <v>0.005619435379593279</v>
+      </c>
+      <c r="C24">
+        <v>-0.07655635122232081</v>
+      </c>
+      <c r="D24">
+        <v>0.06336378422391016</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
       <c r="A25" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B25">
-        <v>-0.003921276788863274</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
+        <v>0.003159644390700231</v>
+      </c>
+      <c r="C25">
+        <v>-0.07877141667259976</v>
+      </c>
+      <c r="D25">
+        <v>0.06656576460961561</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
       <c r="A26" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B26">
-        <v>-0.004626187302176142</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
+        <v>0.003729623937206731</v>
+      </c>
+      <c r="C26">
+        <v>-0.04104054309460325</v>
+      </c>
+      <c r="D26">
+        <v>0.02334912131984665</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
       <c r="A27" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:2">
+      <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
       <c r="A28" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B28">
-        <v>-0.00483408770123145</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2">
+        <v>-0.0007610710599314091</v>
+      </c>
+      <c r="C28">
+        <v>-0.1067332094172185</v>
+      </c>
+      <c r="D28">
+        <v>-0.3171413231856633</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
       <c r="A29" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B29">
-        <v>-0.001149611753110931</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2">
+        <v>0.003412098361419388</v>
+      </c>
+      <c r="C29">
+        <v>-0.05058679218926275</v>
+      </c>
+      <c r="D29">
+        <v>0.007535983416771838</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
       <c r="A30" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B30">
-        <v>-0.003240032431092139</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2">
+        <v>0.009687370669524777</v>
+      </c>
+      <c r="C30">
+        <v>-0.1427045582655451</v>
+      </c>
+      <c r="D30">
+        <v>0.09300800357352268</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
       <c r="A31" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B31">
-        <v>0.001128694825388082</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2">
+        <v>0.00632411492382451</v>
+      </c>
+      <c r="C31">
+        <v>-0.04452330287797868</v>
+      </c>
+      <c r="D31">
+        <v>0.03113179808661006</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
       <c r="A32" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B32">
-        <v>0.0005273614396075917</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2">
+        <v>0.004212780269674624</v>
+      </c>
+      <c r="C32">
+        <v>-0.04019312248130202</v>
+      </c>
+      <c r="D32">
+        <v>0.01910282338955517</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
       <c r="A33" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B33">
-        <v>-0.002818428655267467</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2">
+        <v>0.008629283510464596</v>
+      </c>
+      <c r="C33">
+        <v>-0.08673005099397706</v>
+      </c>
+      <c r="D33">
+        <v>0.06589862321286868</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
       <c r="A34" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B34">
-        <v>-0.004386003758706456</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2">
+        <v>0.004067191611765741</v>
+      </c>
+      <c r="C34">
+        <v>-0.05812772649279122</v>
+      </c>
+      <c r="D34">
+        <v>0.05407821291516007</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
       <c r="A35" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B35">
-        <v>-0.001453566660593693</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2">
+        <v>0.005057803586685118</v>
+      </c>
+      <c r="C35">
+        <v>-0.04034438748422538</v>
+      </c>
+      <c r="D35">
+        <v>0.01637949545997911</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
       <c r="A36" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B36">
-        <v>-0.003754964670367156</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2">
+        <v>-0.001091254867404273</v>
+      </c>
+      <c r="C36">
+        <v>-0.02442461220388468</v>
+      </c>
+      <c r="D36">
+        <v>0.02098072714101801</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
       <c r="A37" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:2">
+      <c r="C37">
+        <v>0</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
       <c r="A38" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B38">
-        <v>0.002458925714539948</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2">
+        <v>0.009511252496229335</v>
+      </c>
+      <c r="C38">
+        <v>-0.03457609022849242</v>
+      </c>
+      <c r="D38">
+        <v>0.01379051521629755</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
       <c r="A39" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B39">
-        <v>-0.01161286916068418</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2">
+        <v>-0.0003664258659086206</v>
+      </c>
+      <c r="C39">
+        <v>-0.1159338383379111</v>
+      </c>
+      <c r="D39">
+        <v>0.07272919770955856</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
       <c r="A40" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B40">
-        <v>-0.009561494550978969</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2">
+        <v>0.002817591912809907</v>
+      </c>
+      <c r="C40">
+        <v>-0.09037882088041815</v>
+      </c>
+      <c r="D40">
+        <v>0.01012244383275257</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
       <c r="A41" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B41">
-        <v>1.617764114070325e-05</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2">
+        <v>0.007333749875539447</v>
+      </c>
+      <c r="C41">
+        <v>-0.03820105473561955</v>
+      </c>
+      <c r="D41">
+        <v>0.03585262540783644</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
       <c r="A42" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:2">
+      <c r="C42">
+        <v>0</v>
+      </c>
+      <c r="D42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
       <c r="A43" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B43">
-        <v>-0.00280490043571143</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2">
+        <v>0.004152713308583383</v>
+      </c>
+      <c r="C43">
+        <v>-0.0536769175973039</v>
+      </c>
+      <c r="D43">
+        <v>0.02441510015311197</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
       <c r="A44" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B44">
-        <v>-0.00436349283324552</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2">
+        <v>0.003587596328508442</v>
+      </c>
+      <c r="C44">
+        <v>-0.1101530545105249</v>
+      </c>
+      <c r="D44">
+        <v>0.06506226673009842</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
       <c r="A45" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:2">
+      <c r="C45">
+        <v>0</v>
+      </c>
+      <c r="D45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
       <c r="A46" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B46">
-        <v>-0.0009485115638151514</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2">
+        <v>0.002329636312799437</v>
+      </c>
+      <c r="C46">
+        <v>-0.03364874322961696</v>
+      </c>
+      <c r="D46">
+        <v>0.0341029757859909</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
       <c r="A47" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B47">
-        <v>-0.0004110835969641854</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2">
+        <v>0.002784434794435802</v>
+      </c>
+      <c r="C47">
+        <v>-0.0374178255152074</v>
+      </c>
+      <c r="D47">
+        <v>0.02209246153359545</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
       <c r="A48" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B48">
-        <v>0.003722032553476999</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2">
+        <v>0.00672340969559812</v>
+      </c>
+      <c r="C48">
+        <v>-0.03085190531347081</v>
+      </c>
+      <c r="D48">
+        <v>0.03222863349955345</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
       <c r="A49" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B49">
-        <v>-0.0119191442659943</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2">
+        <v>0.01577953906558886</v>
+      </c>
+      <c r="C49">
+        <v>-0.1854156084636365</v>
+      </c>
+      <c r="D49">
+        <v>0.0162349484378646</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
       <c r="A50" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B50">
-        <v>-0.00174478666053843</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2">
+        <v>0.003698908608205676</v>
+      </c>
+      <c r="C50">
+        <v>-0.04322095093485847</v>
+      </c>
+      <c r="D50">
+        <v>0.03678160554437786</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
       <c r="A51" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B51">
-        <v>0.001008332796309366</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2">
+        <v>0.004492049549307467</v>
+      </c>
+      <c r="C51">
+        <v>-0.02600300053789156</v>
+      </c>
+      <c r="D51">
+        <v>0.02003749753240163</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
       <c r="A52" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:2">
+      <c r="C52">
+        <v>0</v>
+      </c>
+      <c r="D52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
       <c r="A53" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B53">
-        <v>0.0008197739817604969</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2">
+        <v>0.02123628020069016</v>
+      </c>
+      <c r="C53">
+        <v>-0.169687674349978</v>
+      </c>
+      <c r="D53">
+        <v>0.02649820425394134</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
       <c r="A54" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B54">
-        <v>0.001236618492481573</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2">
+        <v>0.008857125977648555</v>
+      </c>
+      <c r="C54">
+        <v>-0.05430402441577654</v>
+      </c>
+      <c r="D54">
+        <v>0.04364237104009516</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
       <c r="A55" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B55">
-        <v>-0.00351429661323889</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2">
+        <v>0.009754871397329588</v>
+      </c>
+      <c r="C55">
+        <v>-0.1086403175830248</v>
+      </c>
+      <c r="D55">
+        <v>0.04027271098320811</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
       <c r="A56" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B56">
-        <v>0.002794375172728917</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2">
+        <v>0.02032724584127356</v>
+      </c>
+      <c r="C56">
+        <v>-0.1734716982721989</v>
+      </c>
+      <c r="D56">
+        <v>0.02220754437823828</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
       <c r="A57" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:2">
+      <c r="C57">
+        <v>0</v>
+      </c>
+      <c r="D57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
       <c r="A58" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B58">
-        <v>-0.006947894147734556</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2">
+        <v>0.0198487218288781</v>
+      </c>
+      <c r="C58">
+        <v>-0.1120869066682019</v>
+      </c>
+      <c r="D58">
+        <v>0.04508918832360351</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
       <c r="A59" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B59">
-        <v>-0.006628228640069687</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2">
+        <v>0.009983587629463893</v>
+      </c>
+      <c r="C59">
+        <v>-0.1638363284071411</v>
+      </c>
+      <c r="D59">
+        <v>-0.3241115448147568</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
       <c r="A60" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B60">
-        <v>-0.003737538643346474</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2">
+        <v>0.02444980886347067</v>
+      </c>
+      <c r="C60">
+        <v>-0.2221240477729438</v>
+      </c>
+      <c r="D60">
+        <v>0.03306303069410208</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
       <c r="A61" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B61">
-        <v>-0.01373875047096131</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2">
+        <v>-0.001569656887892974</v>
+      </c>
+      <c r="C61">
+        <v>-0.09522466984828919</v>
+      </c>
+      <c r="D61">
+        <v>0.05435823013251671</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
       <c r="A62" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B62">
-        <v>0.1632016296825468</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2">
+        <v>0.145167881241456</v>
+      </c>
+      <c r="C62">
+        <v>-0.0930121827219504</v>
+      </c>
+      <c r="D62">
+        <v>0.04280621447810341</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
       <c r="A63" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B63">
-        <v>-0.0004570254467796477</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2">
+        <v>0.006413970140427837</v>
+      </c>
+      <c r="C63">
+        <v>-0.05501429776980116</v>
+      </c>
+      <c r="D63">
+        <v>0.02810685359406636</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
       <c r="A64" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B64">
-        <v>-0.0007895962138883922</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2">
+        <v>0.01546506446651383</v>
+      </c>
+      <c r="C64">
+        <v>-0.1045686089275536</v>
+      </c>
+      <c r="D64">
+        <v>0.05837418042141619</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
       <c r="A65" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B65">
-        <v>0.002649333438217605</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2">
+        <v>0.01835629585540428</v>
+      </c>
+      <c r="C65">
+        <v>-0.1252025072036821</v>
+      </c>
+      <c r="D65">
+        <v>0.01973599907019167</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
       <c r="A66" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B66">
-        <v>-0.007680564896923489</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2">
+        <v>0.01333433237421765</v>
+      </c>
+      <c r="C66">
+        <v>-0.1600176144722049</v>
+      </c>
+      <c r="D66">
+        <v>0.1107549579331009</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
       <c r="A67" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B67">
-        <v>0.003682258665621883</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2">
+        <v>0.01573617072055578</v>
+      </c>
+      <c r="C67">
+        <v>-0.06543444865627676</v>
+      </c>
+      <c r="D67">
+        <v>0.02555769846987075</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
       <c r="A68" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B68">
-        <v>-0.006004117138823864</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2">
+        <v>0.0007664088698041419</v>
+      </c>
+      <c r="C68">
+        <v>-0.08664578896500544</v>
+      </c>
+      <c r="D68">
+        <v>-0.2606560649090313</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
       <c r="A69" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B69">
-        <v>-0.00209969488333163</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2">
+        <v>0.006320171631615652</v>
+      </c>
+      <c r="C69">
+        <v>-0.05058632842615633</v>
+      </c>
+      <c r="D69">
+        <v>0.04027967132977836</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
       <c r="A70" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B70">
-        <v>-0.000233553534683925</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2">
+        <v>0.001830208771717214</v>
+      </c>
+      <c r="C70">
+        <v>-0.002513210990863785</v>
+      </c>
+      <c r="D70">
+        <v>0.00127884576704423</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
       <c r="A71" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B71">
-        <v>2.694634742211868e-05</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2">
+        <v>0.00585938822813266</v>
+      </c>
+      <c r="C71">
+        <v>-0.09413729283404321</v>
+      </c>
+      <c r="D71">
+        <v>-0.3068399950579669</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
       <c r="A72" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B72">
-        <v>-0.003948645536004677</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2">
+        <v>0.01650434983179346</v>
+      </c>
+      <c r="C72">
+        <v>-0.153698007117692</v>
+      </c>
+      <c r="D72">
+        <v>0.02195546251766332</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
       <c r="A73" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B73">
-        <v>-0.01216018080597151</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2">
+        <v>0.03135864683326834</v>
+      </c>
+      <c r="C73">
+        <v>-0.2801499750569607</v>
+      </c>
+      <c r="D73">
+        <v>0.05463488006987239</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
       <c r="A74" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B74">
-        <v>-0.004494218531550778</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2">
+        <v>0.002171684292307117</v>
+      </c>
+      <c r="C74">
+        <v>-0.1047094266639816</v>
+      </c>
+      <c r="D74">
+        <v>0.03554618667789212</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
       <c r="A75" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B75">
-        <v>-0.002537845712957357</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2">
+        <v>0.01117728436997789</v>
+      </c>
+      <c r="C75">
+        <v>-0.1242262674334153</v>
+      </c>
+      <c r="D75">
+        <v>0.02376716569502771</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4">
       <c r="A76" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B76">
-        <v>0.008899870923745407</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2">
+        <v>0.02205293635099831</v>
+      </c>
+      <c r="C76">
+        <v>-0.1485955216716615</v>
+      </c>
+      <c r="D76">
+        <v>0.05834443828814251</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4">
       <c r="A77" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B77">
-        <v>0.001592572563263025</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2">
+        <v>0.0237212625345625</v>
+      </c>
+      <c r="C77">
+        <v>-0.1225916771939686</v>
+      </c>
+      <c r="D77">
+        <v>0.09014394668291474</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4">
       <c r="A78" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B78">
-        <v>0.0003701500630333403</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2">
+        <v>0.01494843840203587</v>
+      </c>
+      <c r="C78">
+        <v>-0.09593988621626219</v>
+      </c>
+      <c r="D78">
+        <v>0.07038928510966282</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4">
       <c r="A79" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B79">
-        <v>0.02339427841646675</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2">
+        <v>0.03795636080953926</v>
+      </c>
+      <c r="C79">
+        <v>-0.1564498154885996</v>
+      </c>
+      <c r="D79">
+        <v>0.03161998110055531</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4">
       <c r="A80" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B80">
-        <v>0.006881691378352217</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2">
+        <v>0.01042730410296148</v>
+      </c>
+      <c r="C80">
+        <v>-0.0399752960466451</v>
+      </c>
+      <c r="D80">
+        <v>0.02776825503526138</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4">
       <c r="A81" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B81">
-        <v>0.0008411649218553758</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2">
+        <v>0.01557128477923846</v>
+      </c>
+      <c r="C81">
+        <v>-0.1272098367723245</v>
+      </c>
+      <c r="D81">
+        <v>0.03926712894578629</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4">
       <c r="A82" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B82">
-        <v>0.005812827740228167</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2">
+        <v>0.02007673838794825</v>
+      </c>
+      <c r="C82">
+        <v>-0.1410938112341729</v>
+      </c>
+      <c r="D82">
+        <v>0.03602937891278289</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4">
       <c r="A83" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B83">
-        <v>-0.009403318330328118</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2">
+        <v>0.01004242863023258</v>
+      </c>
+      <c r="C83">
+        <v>-0.05582075294732772</v>
+      </c>
+      <c r="D83">
+        <v>0.05103682318976727</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4">
       <c r="A84" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B84">
-        <v>0.0132082521559572</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2">
+        <v>0.01168354616889608</v>
+      </c>
+      <c r="C84">
+        <v>-0.03710624488681778</v>
+      </c>
+      <c r="D84">
+        <v>-0.009248257290343356</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4">
       <c r="A85" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B85">
-        <v>0.0140265452434366</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2">
+        <v>0.02853546024720153</v>
+      </c>
+      <c r="C85">
+        <v>-0.1245445720694952</v>
+      </c>
+      <c r="D85">
+        <v>0.04591353048376264</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4">
       <c r="A86" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B86">
-        <v>-0.00129742384204426</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2">
+        <v>0.005962056308729848</v>
+      </c>
+      <c r="C86">
+        <v>-0.0498180340911438</v>
+      </c>
+      <c r="D86">
+        <v>0.0300329966529158</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4">
       <c r="A87" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B87">
-        <v>-0.00407669965354484</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2">
+        <v>0.01035181888799395</v>
+      </c>
+      <c r="C87">
+        <v>-0.1288987929055008</v>
+      </c>
+      <c r="D87">
+        <v>0.07482214128140083</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4">
       <c r="A88" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B88">
-        <v>-0.01152920454760112</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2">
+        <v>-0.00283241415156051</v>
+      </c>
+      <c r="C88">
+        <v>-0.06482630508240712</v>
+      </c>
+      <c r="D88">
+        <v>0.01760991994740002</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4">
       <c r="A89" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B89">
-        <v>-0.01382128653747614</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2">
+        <v>-0.00109515769482232</v>
+      </c>
+      <c r="C89">
+        <v>-0.146532839019955</v>
+      </c>
+      <c r="D89">
+        <v>-0.3403393435699949</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4">
       <c r="A90" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B90">
-        <v>-0.0005766050762138259</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2">
+        <v>0.007176144234747341</v>
+      </c>
+      <c r="C90">
+        <v>-0.1204920080658577</v>
+      </c>
+      <c r="D90">
+        <v>-0.3198762310258689</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4">
       <c r="A91" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B91">
-        <v>0.0008599354489402688</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2">
+        <v>0.0105712812686637</v>
+      </c>
+      <c r="C91">
+        <v>-0.1002283729462159</v>
+      </c>
+      <c r="D91">
+        <v>0.02120968476093084</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4">
       <c r="A92" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B92">
-        <v>-0.007385421534896509</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2">
+        <v>0.001131120444626162</v>
+      </c>
+      <c r="C92">
+        <v>-0.1340251196378578</v>
+      </c>
+      <c r="D92">
+        <v>-0.3269930141744574</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4">
       <c r="A93" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B93">
-        <v>-0.0001106919957969591</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2">
+        <v>0.005066445880365709</v>
+      </c>
+      <c r="C93">
+        <v>-0.1045360390045328</v>
+      </c>
+      <c r="D93">
+        <v>-0.301670628007983</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4">
       <c r="A94" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B94">
-        <v>0.003573964682703538</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2">
+        <v>0.02278703583782429</v>
+      </c>
+      <c r="C94">
+        <v>-0.1465146046822948</v>
+      </c>
+      <c r="D94">
+        <v>0.05200779151411952</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4">
       <c r="A95" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B95">
-        <v>-0.004811886326790995</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2">
+        <v>0.01661040919188992</v>
+      </c>
+      <c r="C95">
+        <v>-0.1245386126042244</v>
+      </c>
+      <c r="D95">
+        <v>0.05716800179900069</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4">
       <c r="A96" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:2">
+      <c r="C96">
+        <v>0</v>
+      </c>
+      <c r="D96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4">
       <c r="A97" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B97">
-        <v>0.001574510485065363</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2">
+        <v>0.03674145469770303</v>
+      </c>
+      <c r="C97">
+        <v>-0.2136778127484837</v>
+      </c>
+      <c r="D97">
+        <v>0.002259929811456234</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4">
       <c r="A98" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B98">
-        <v>-0.002716316001623894</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2">
+        <v>0.03717040818674501</v>
+      </c>
+      <c r="C98">
+        <v>-0.2493058143742077</v>
+      </c>
+      <c r="D98">
+        <v>0.04894870392886569</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4">
       <c r="A99" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B99">
-        <v>0.984866713095032</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2">
+        <v>0.9819341081305226</v>
+      </c>
+      <c r="C99">
+        <v>0.1185452412290201</v>
+      </c>
+      <c r="D99">
+        <v>-0.02725364208270661</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4">
       <c r="A100" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:2">
+      <c r="C100">
+        <v>0</v>
+      </c>
+      <c r="D100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4">
       <c r="A101" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B101">
-        <v>-0.001046583055538001</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2">
+        <v>0.003449858854331995</v>
+      </c>
+      <c r="C101">
+        <v>-0.05076696182786612</v>
+      </c>
+      <c r="D101">
+        <v>0.007672450910842604</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4">
       <c r="A102" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:2">
+      <c r="C102">
+        <v>0</v>
+      </c>
+      <c r="D102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4">
       <c r="A103" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:2">
+      <c r="C103">
+        <v>0</v>
+      </c>
+      <c r="D103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4">
       <c r="A104" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B104">
+        <v>0</v>
+      </c>
+      <c r="C104">
+        <v>0</v>
+      </c>
+      <c r="D104">
         <v>0</v>
       </c>
     </row>
